--- a/data/Rafa_pdf 2.xlsx
+++ b/data/Rafa_pdf 2.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="829">
   <si>
     <t>Tabla 1</t>
   </si>
@@ -2425,7 +2425,7 @@
     <t>Check1000</t>
   </si>
   <si>
-    <t>Datenblatt_Speichersystem[0].Datenblatt_Seite1[0].Anlagenbetreiber_Anschlussprojekt[0].Anlagen_Anfrage_Nr[0].Optionsfeld[0]</t>
+    <t>Check Box12</t>
   </si>
   <si>
     <t>Angabe</t>
@@ -2485,7 +2485,7 @@
     <t>Check Box11</t>
   </si>
   <si>
-    <t>Check Box12</t>
+    <t>Check Box45</t>
   </si>
   <si>
     <t>Verschiebungsfa</t>
@@ -2497,40 +2497,46 @@
     <t>Speicherschema</t>
   </si>
   <si>
+    <t>Check Box46</t>
+  </si>
+  <si>
+    <t>Verwendete</t>
+  </si>
+  <si>
+    <t>Check Box14</t>
+  </si>
+  <si>
+    <t>Check Box47</t>
+  </si>
+  <si>
+    <t>Check Box23</t>
+  </si>
+  <si>
+    <t>Check Box21</t>
+  </si>
+  <si>
+    <t>Check Box18</t>
+  </si>
+  <si>
+    <t>Check Box22</t>
+  </si>
+  <si>
+    <t>Check Box25</t>
+  </si>
+  <si>
+    <t>Check Box24</t>
+  </si>
+  <si>
+    <t>Check Box15</t>
+  </si>
+  <si>
     <t>Check Box13</t>
   </si>
   <si>
-    <t>Verwendete</t>
-  </si>
-  <si>
-    <t>Check Box14</t>
-  </si>
-  <si>
-    <t>Check Box15</t>
-  </si>
-  <si>
-    <t>Check Box23</t>
-  </si>
-  <si>
-    <t>Check Box21</t>
-  </si>
-  <si>
-    <t>Check Box18</t>
-  </si>
-  <si>
-    <t>Check Box22</t>
-  </si>
-  <si>
-    <t>Datenblatt_Speichersystem[0].Datenblatt_Seite1[0].Wechselrichter_des_Speichersystems[0].Anschlusskonzept[0].Angaben_Anschlusskonzept[0].Zeile_5[0].Option_Lieferung[0]</t>
-  </si>
-  <si>
-    <t>Datenblatt_Speichersystem[0].Datenblatt_Seite1[0].Wechselrichter_des_Speichersystems[0].Anschlusskonzept[0].Angaben_Anschlusskonzept[0].Zeile_5[0].Option_Bezug[0]</t>
-  </si>
-  <si>
-    <t>Check Box24</t>
-  </si>
-  <si>
-    <t>Check Box25</t>
+    <t>Check Box49</t>
+  </si>
+  <si>
+    <t>Check Box48</t>
   </si>
   <si>
     <t>Bemerkungen</t>
@@ -3858,6 +3864,9 @@
     <t>Datenblatt_Speichersystem[0].Datenblatt_Seite1[0].Anlagenbetreiber_Anschlussprojekt[0].Anlagenbetreiber[0].#subform[0].PLZ_Ort[0]</t>
   </si>
   <si>
+    <t>Datenblatt_Speichersystem[0].Datenblatt_Seite1[0].Anlagenbetreiber_Anschlussprojekt[0].Anlagen_Anfrage_Nr[0].Optionsfeld[0]</t>
+  </si>
+  <si>
     <t>Datenblatt_Speichersystem[0].Datenblatt_Seite1[0].Anlagenbetreiber_Anschlussprojekt[0].Anlagen_Anfrage_Nr[0].Anfrage-Nr\.[0]</t>
   </si>
   <si>
@@ -3933,7 +3942,13 @@
     <t>Datenblatt_Speichersystem[0].Datenblatt_Seite1[0].Wechselrichter_des_Speichersystems[0].Anschlusskonzept[0].Angaben_Anschlusskonzept[0].Zeile_4[0].Einspeisevergütung[0]</t>
   </si>
   <si>
+    <t>Datenblatt_Speichersystem[0].Datenblatt_Seite1[0].Wechselrichter_des_Speichersystems[0].Anschlusskonzept[0].Angaben_Anschlusskonzept[0].Zeile_5[0].Option_Lieferung[0]</t>
+  </si>
+  <si>
     <t>Datenblatt_Speichersystem[0].Datenblatt_Seite1[0].Wechselrichter_des_Speichersystems[0].Anschlusskonzept[0].Angaben_Anschlusskonzept[0].Zeile_5[0].Regelenergie[0]</t>
+  </si>
+  <si>
+    <t>Datenblatt_Speichersystem[0].Datenblatt_Seite1[0].Wechselrichter_des_Speichersystems[0].Anschlusskonzept[0].Angaben_Anschlusskonzept[0].Zeile_5[0].Option_Bezug[0]</t>
   </si>
   <si>
     <t>Datenblatt_Speichersystem[0].Datenblatt_Seite1[0].Nachweise[0].Angaben_Nachweise[0].VDE_AR_N_4105[0].VDE_AR_N_4105[0]</t>
@@ -4003,7 +4018,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -4108,6 +4123,11 @@
       <sz val="10"/>
       <color indexed="16"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Times Roman"/>
     </font>
   </fonts>
   <fills count="6">
@@ -4328,7 +4348,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4487,6 +4507,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
@@ -7375,157 +7398,157 @@
         <v>397</v>
       </c>
       <c r="CR4" t="s" s="43">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="CS4" t="s" s="43">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="CT4" t="s" s="43">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="CU4" t="s" s="40">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="CV4" t="s" s="43">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="CW4" t="s" s="43">
         <v>26</v>
       </c>
       <c r="CX4" t="s" s="43">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="CY4" t="s" s="40">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="CZ4" t="s" s="40">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="DA4" t="s" s="40">
         <v>148</v>
       </c>
       <c r="DB4" t="s" s="40">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="DC4" t="s" s="40">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="DD4" t="s" s="40">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="DE4" t="s" s="40">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="DF4" t="s" s="40">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="DG4" t="s" s="40">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="DH4" t="s" s="40">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="DI4" t="s" s="40">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="DJ4" t="s" s="40">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="DK4" t="s" s="40">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="DL4" t="s" s="40">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="DM4" t="s" s="40">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="DN4" t="s" s="40">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="DO4" t="s" s="40">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="DP4" t="s" s="40">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="DQ4" t="s" s="40">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="DR4" t="s" s="40">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="DS4" t="s" s="40">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="DT4" t="s" s="40">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="DU4" t="s" s="40">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="DV4" t="s" s="40">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="DW4" t="s" s="46">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="DX4" t="s" s="40">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="DY4" t="s" s="46">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="DZ4" t="s" s="46">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="EA4" t="s" s="46">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="EB4" t="s" s="46">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="EC4" t="s" s="40">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="ED4" t="s" s="40">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="EE4" t="s" s="46">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="EF4" t="s" s="46">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="EG4" t="s" s="46">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="EH4" t="s" s="46">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="EI4" t="s" s="46">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="EJ4" t="s" s="46">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="EK4" t="s" s="38">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="EL4" t="s" s="47">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="EM4" t="s" s="40">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="EN4" t="s" s="40">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="EO4" t="s" s="40">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="EP4" t="s" s="40">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="EQ4" t="s" s="40">
         <v>187</v>
@@ -7534,7 +7557,7 @@
         <v>188</v>
       </c>
       <c r="ES4" t="s" s="40">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="ET4" t="s" s="40">
         <v>190</v>
@@ -7546,402 +7569,402 @@
         <v>192</v>
       </c>
       <c r="EW4" t="s" s="40">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="EX4" t="s" s="40">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="EY4" t="s" s="40">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="EZ4" t="s" s="40">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="FA4" t="s" s="40">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="FB4" t="s" s="40">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="FC4" t="s" s="40">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="FD4" t="s" s="40">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="FE4" t="s" s="41">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="FF4" t="s" s="40">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="FG4" t="s" s="40">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="FH4" t="s" s="40">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="FI4" t="s" s="40">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="FJ4" t="s" s="40">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="FK4" t="s" s="40">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="FL4" t="s" s="40">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="FM4" t="s" s="40">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="FN4" t="s" s="40">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="FO4" t="s" s="40">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="FP4" t="s" s="48">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="FQ4" t="s" s="40">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="FR4" t="s" s="40">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="FS4" t="s" s="40">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="FT4" t="s" s="40">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="FU4" t="s" s="40">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="FV4" t="s" s="40">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="FW4" t="s" s="40">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="FX4" t="s" s="40">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="FY4" t="s" s="40">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="FZ4" t="s" s="40">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="GA4" t="s" s="40">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="GB4" t="s" s="40">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="GC4" t="s" s="48">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="GD4" t="s" s="48">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="GE4" t="s" s="40">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="GF4" t="s" s="40">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="GG4" t="s" s="40">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="GH4" t="s" s="40">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="GI4" t="s" s="40">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="GJ4" t="s" s="40">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="GK4" t="s" s="40">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="GL4" t="s" s="40">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="GM4" t="s" s="40">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="GN4" t="s" s="40">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="GO4" t="s" s="40">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="GP4" t="s" s="40">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="GQ4" t="s" s="40">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="GR4" t="s" s="40">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="GS4" t="s" s="40">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="GT4" t="s" s="40">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="GU4" t="s" s="40">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="GV4" t="s" s="40">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="GW4" t="s" s="40">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="GX4" t="s" s="40">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="GY4" t="s" s="40">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="GZ4" t="s" s="40">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="HA4" t="s" s="40">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="HB4" t="s" s="40">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="HC4" t="s" s="40">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="HD4" t="s" s="40">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="HE4" t="s" s="40">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="HF4" t="s" s="40">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="HG4" t="s" s="40">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="HH4" t="s" s="40">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="HI4" t="s" s="40">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="HJ4" t="s" s="40">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="HK4" t="s" s="40">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="HL4" t="s" s="40">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="HM4" t="s" s="40">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="HN4" t="s" s="40">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="HO4" t="s" s="40">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="HP4" t="s" s="40">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="HQ4" t="s" s="40">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="HR4" t="s" s="40">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="HS4" t="s" s="40">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="HT4" t="s" s="40">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="HU4" t="s" s="40">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="HV4" t="s" s="40">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="HW4" t="s" s="40">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="HX4" t="s" s="40">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="HY4" t="s" s="40">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="HZ4" t="s" s="40">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="IA4" t="s" s="40">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="IB4" t="s" s="40">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="IC4" t="s" s="40">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="ID4" t="s" s="40">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="IE4" t="s" s="40">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="IF4" t="s" s="40">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="IG4" t="s" s="40">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="IH4" t="s" s="40">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="II4" t="s" s="40">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="IJ4" t="s" s="40">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="IK4" t="s" s="40">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="IL4" t="s" s="40">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="IM4" t="s" s="40">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="IN4" t="s" s="40">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="IO4" t="s" s="40">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="IP4" t="s" s="40">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="IQ4" t="s" s="40">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="IR4" t="s" s="40">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="IS4" t="s" s="40">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="IT4" t="s" s="40">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="IU4" t="s" s="40">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="IV4" t="s" s="40">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="IW4" t="s" s="40">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="IX4" t="s" s="40">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="IY4" t="s" s="40">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="IZ4" t="s" s="48">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="JA4" t="s" s="40">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="JB4" t="s" s="40">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="JC4" t="s" s="42">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="JD4" t="s" s="42">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="JE4" t="s" s="40">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="JF4" t="s" s="41">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="JG4" t="s" s="41">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="JH4" t="s" s="41">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="JI4" t="s" s="41">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="JJ4" t="s" s="42">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="5" ht="14.7" customHeight="1">
       <c r="A5" t="s" s="49">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B5" t="s" s="50">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C5" t="s" s="43">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="D5" t="s" s="43">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="E5" t="s" s="43">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F5" t="s" s="43">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="G5" t="s" s="43">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="H5" t="s" s="43">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="I5" t="s" s="43">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="J5" t="s" s="43">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="K5" t="s" s="43">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="L5" t="s" s="43">
         <v>315</v>
       </c>
       <c r="M5" t="s" s="43">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="N5" t="s" s="43">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="O5" t="s" s="43">
         <v>318</v>
@@ -7950,22 +7973,22 @@
         <v>319</v>
       </c>
       <c r="Q5" t="s" s="43">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="R5" t="s" s="43">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="S5" t="s" s="43">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="T5" t="s" s="43">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="U5" t="s" s="43">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="V5" t="s" s="43">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="W5" s="51">
         <v>73</v>
@@ -7977,31 +8000,31 @@
         <v>80</v>
       </c>
       <c r="Z5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AA5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AB5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AC5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AD5" s="51">
         <v>90</v>
       </c>
       <c r="AE5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AF5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AG5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AH5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AI5" s="51">
         <v>90</v>
@@ -8010,37 +8033,37 @@
         <v>60</v>
       </c>
       <c r="AK5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AL5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AM5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AN5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AO5" t="s" s="43">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="AP5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AQ5" s="51">
         <v>90</v>
       </c>
       <c r="AR5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AS5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AT5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AU5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AV5" s="51">
         <v>90</v>
@@ -8061,22 +8084,22 @@
         <v>80</v>
       </c>
       <c r="BB5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="BC5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="BD5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="BE5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="BF5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="BG5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="BH5" t="s" s="43">
         <v>26</v>
@@ -8085,271 +8108,271 @@
         <v>363</v>
       </c>
       <c r="BJ5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="BK5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="BL5" t="s" s="43">
         <v>366</v>
       </c>
       <c r="BM5" t="s" s="43">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="BN5" t="s" s="43">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="BO5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="BP5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="BQ5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="BR5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="BS5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="BT5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="BU5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="BV5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="BW5" t="s" s="43">
         <v>377</v>
       </c>
       <c r="BX5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="BY5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="BZ5" t="s" s="43">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="CA5" t="s" s="43">
         <v>381</v>
       </c>
       <c r="CB5" t="s" s="43">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="CC5" t="s" s="43">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="CD5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="CE5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="CF5" t="s" s="43">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="CG5" t="s" s="43">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="CH5" t="s" s="43">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="CI5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="CJ5" t="s" s="43">
         <v>146</v>
       </c>
       <c r="CK5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="CL5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="CM5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="CN5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="CO5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="CP5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="CQ5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="CR5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="CS5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="CT5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="CU5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="CV5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="CW5" t="s" s="43">
         <v>26</v>
       </c>
       <c r="CX5" t="s" s="43">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="CY5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="CZ5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="DA5" t="s" s="43">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="DB5" t="s" s="43">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="DC5" t="s" s="43">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="DD5" t="s" s="43">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="DE5" t="s" s="43">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="DF5" t="s" s="43">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="DG5" t="s" s="43">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="DH5" t="s" s="43">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="DI5" t="s" s="43">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="DJ5" t="s" s="43">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="DK5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="DL5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="DM5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="DN5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="DO5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="DP5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="DQ5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="DR5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="DS5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="DT5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="DU5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="DV5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="DW5" t="s" s="43">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="DX5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="DY5" t="s" s="43">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="DZ5" t="s" s="43">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="EA5" t="s" s="43">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="EB5" t="s" s="43">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="EC5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="ED5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="EE5" t="s" s="43">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="EF5" t="s" s="43">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="EG5" t="s" s="43">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="EH5" t="s" s="43">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="EI5" t="s" s="43">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="EJ5" t="s" s="43">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="EK5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="EL5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="EM5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="EN5" t="s" s="43">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="EO5" t="s" s="43">
         <v>305</v>
       </c>
       <c r="EP5" t="s" s="43">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="EQ5" t="s" s="43">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="ER5" t="s" s="43">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="ES5" t="s" s="43">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="ET5" t="s" s="43">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="EU5" t="s" s="43">
         <v>191</v>
@@ -8358,354 +8381,354 @@
         <v>192</v>
       </c>
       <c r="EW5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="EX5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="EY5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="EZ5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="FA5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="FB5" s="43"/>
       <c r="FC5" s="43"/>
       <c r="FD5" s="43"/>
       <c r="FE5" s="43"/>
       <c r="FF5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="FG5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="FH5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="FI5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="FJ5" s="43"/>
       <c r="FK5" s="43"/>
       <c r="FL5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="FM5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="FN5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="FO5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="FP5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="FQ5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="FR5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="FS5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="FT5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="FU5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="FV5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="FW5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="FX5" s="43"/>
       <c r="FY5" s="43"/>
       <c r="FZ5" s="43"/>
       <c r="GA5" t="s" s="43">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="GB5" t="s" s="43">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="GC5" t="s" s="43">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="GD5" t="s" s="43">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="GE5" t="s" s="43">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="GF5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="GG5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="GH5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="GI5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="GJ5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="GK5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="GL5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="GM5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="GN5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="GO5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="GP5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="GQ5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="GR5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="GS5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="GT5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="GU5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="GV5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="GW5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="GX5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="GY5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="GZ5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="HA5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="HB5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="HC5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="HD5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="HE5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="HF5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="HG5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="HH5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="HI5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="HJ5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="HK5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="HL5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="HM5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="HN5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="HO5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="HP5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="HQ5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="HR5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="HS5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="HT5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="HU5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="HV5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="HW5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="HX5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="HY5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="HZ5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="IA5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="IB5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="IC5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="ID5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="IE5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="IF5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="IG5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="IH5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="II5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="IJ5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="IK5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="IL5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="IM5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="IN5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="IO5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="IP5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="IQ5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="IR5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="IS5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="IT5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="IU5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="IV5" t="s" s="43">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="IW5" t="s" s="43">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="IX5" t="s" s="43">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="IY5" t="s" s="43">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="IZ5" t="s" s="43">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="JA5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="JB5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="JC5" t="s" s="43">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="JD5" t="s" s="43">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="JE5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="JF5" t="s" s="43">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="JG5" t="s" s="43">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="JH5" t="s" s="43">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="JI5" t="s" s="43">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="JJ5" t="s" s="43">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="6" ht="14.7" customHeight="1">
       <c r="A6" t="s" s="49">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B6" t="s" s="50">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C6" t="s" s="43">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="D6" t="s" s="43">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="E6" s="43"/>
       <c r="F6" s="43"/>
@@ -8723,7 +8746,7 @@
       <c r="R6" s="43"/>
       <c r="S6" s="43"/>
       <c r="T6" t="s" s="43">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="U6" s="51">
         <v>605</v>
@@ -8739,29 +8762,29 @@
         <v>80</v>
       </c>
       <c r="Z6" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AA6" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AB6" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AC6" s="43"/>
       <c r="AD6" s="51">
         <v>80</v>
       </c>
       <c r="AE6" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AF6" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AG6" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AH6" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AI6" s="51">
         <v>80</v>
@@ -8770,31 +8793,31 @@
         <v>60</v>
       </c>
       <c r="AK6" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AL6" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AM6" s="43"/>
       <c r="AN6" s="43"/>
       <c r="AO6" s="43"/>
       <c r="AP6" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AQ6" s="51">
         <v>80</v>
       </c>
       <c r="AR6" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AS6" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AT6" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AU6" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AV6" s="51">
         <v>60</v>
@@ -8815,19 +8838,19 @@
         <v>70</v>
       </c>
       <c r="BB6" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="BC6" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="BD6" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="BE6" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="BF6" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="BG6" s="43"/>
       <c r="BH6" s="43"/>
@@ -9044,16 +9067,16 @@
     </row>
     <row r="7" ht="14.7" customHeight="1">
       <c r="A7" t="s" s="49">
+        <v>614</v>
+      </c>
+      <c r="B7" t="s" s="50">
+        <v>615</v>
+      </c>
+      <c r="C7" t="s" s="43">
         <v>612</v>
       </c>
-      <c r="B7" t="s" s="50">
-        <v>613</v>
-      </c>
-      <c r="C7" t="s" s="43">
-        <v>610</v>
-      </c>
       <c r="D7" t="s" s="43">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="E7" s="43"/>
       <c r="F7" s="43"/>
@@ -9071,7 +9094,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="43"/>
       <c r="T7" t="s" s="43">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="U7" s="51">
         <v>603</v>
@@ -9087,29 +9110,29 @@
         <v>70</v>
       </c>
       <c r="Z7" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AA7" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AB7" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AC7" s="43"/>
       <c r="AD7" s="51">
         <v>69</v>
       </c>
       <c r="AE7" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AF7" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AG7" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AH7" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AI7" s="51">
         <v>50</v>
@@ -9118,31 +9141,31 @@
         <v>50</v>
       </c>
       <c r="AK7" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AL7" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AM7" s="43"/>
       <c r="AN7" s="43"/>
       <c r="AO7" s="43"/>
       <c r="AP7" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AQ7" s="51">
         <v>79</v>
       </c>
       <c r="AR7" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AS7" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AT7" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AU7" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AV7" s="51">
         <v>50</v>
@@ -9163,19 +9186,19 @@
         <v>40</v>
       </c>
       <c r="BB7" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="BC7" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="BD7" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="BE7" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="BF7" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="BG7" s="43"/>
       <c r="BH7" s="43"/>
@@ -9217,7 +9240,7 @@
       <c r="CR7" s="43"/>
       <c r="CS7" s="43"/>
       <c r="CT7" s="43"/>
-      <c r="CU7" s="43"/>
+      <c r="CU7" s="53"/>
       <c r="CV7" s="43"/>
       <c r="CW7" s="43"/>
       <c r="CX7" s="43"/>
@@ -9392,13 +9415,13 @@
     </row>
     <row r="8" ht="14.7" customHeight="1">
       <c r="A8" t="s" s="49">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B8" t="s" s="50">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C8" t="s" s="43">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="D8" s="43"/>
       <c r="E8" s="43"/>
@@ -9417,7 +9440,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="43"/>
       <c r="T8" t="s" s="43">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="U8" s="51">
         <v>606</v>
@@ -9433,29 +9456,29 @@
         <v>50</v>
       </c>
       <c r="Z8" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AA8" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AB8" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AC8" s="43"/>
       <c r="AD8" s="51">
         <v>70</v>
       </c>
       <c r="AE8" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AF8" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AG8" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AH8" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AI8" s="51">
         <v>50</v>
@@ -9464,31 +9487,31 @@
         <v>50</v>
       </c>
       <c r="AK8" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AL8" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AM8" s="43"/>
       <c r="AN8" s="43"/>
       <c r="AO8" s="43"/>
       <c r="AP8" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AQ8" s="51">
         <v>99</v>
       </c>
       <c r="AR8" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AS8" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AT8" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AU8" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AV8" s="51">
         <v>60</v>
@@ -9509,19 +9532,19 @@
         <v>20</v>
       </c>
       <c r="BB8" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="BC8" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="BD8" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="BE8" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="BF8" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="BG8" s="43"/>
       <c r="BH8" s="43"/>
@@ -9738,13 +9761,13 @@
     </row>
     <row r="9" ht="14.7" customHeight="1">
       <c r="A9" t="s" s="49">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B9" t="s" s="50">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C9" t="s" s="43">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="D9" s="43"/>
       <c r="E9" s="43"/>
@@ -9763,7 +9786,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="43"/>
       <c r="T9" t="s" s="43">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="U9" s="51">
         <v>606</v>
@@ -9779,29 +9802,29 @@
         <v>50</v>
       </c>
       <c r="Z9" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AA9" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AB9" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AC9" s="43"/>
       <c r="AD9" s="51">
         <v>80</v>
       </c>
       <c r="AE9" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AF9" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AG9" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AH9" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AI9" s="51">
         <v>60</v>
@@ -9810,31 +9833,31 @@
         <v>50</v>
       </c>
       <c r="AK9" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AL9" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AM9" s="43"/>
       <c r="AN9" s="43"/>
       <c r="AO9" s="43"/>
       <c r="AP9" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AQ9" s="51">
         <v>70</v>
       </c>
       <c r="AR9" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AS9" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AT9" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AU9" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AV9" s="51">
         <v>60</v>
@@ -9855,19 +9878,19 @@
         <v>20</v>
       </c>
       <c r="BB9" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="BC9" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="BD9" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="BE9" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="BF9" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="BG9" s="43"/>
       <c r="BH9" s="43"/>
@@ -10083,8 +10106,8 @@
       <c r="JJ9" s="43"/>
     </row>
     <row r="10" ht="14.35" customHeight="1">
-      <c r="A10" s="53"/>
-      <c r="B10" s="54"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="52"/>
       <c r="D10" s="52"/>
       <c r="E10" s="52"/>
@@ -10355,8 +10378,8 @@
       <c r="JJ10" s="52"/>
     </row>
     <row r="11" ht="14.05" customHeight="1">
-      <c r="A11" s="53"/>
-      <c r="B11" s="54"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="52"/>
       <c r="D11" s="52"/>
       <c r="E11" s="52"/>
@@ -10627,8 +10650,8 @@
       <c r="JJ11" s="52"/>
     </row>
     <row r="12" ht="14.05" customHeight="1">
-      <c r="A12" s="53"/>
-      <c r="B12" s="54"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="52"/>
       <c r="D12" s="52"/>
       <c r="E12" s="52"/>
@@ -10961,89 +10984,89 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="76" width="16.3516" style="55" customWidth="1"/>
-    <col min="77" max="16384" width="16.3516" style="55" customWidth="1"/>
+    <col min="1" max="76" width="16.3516" style="56" customWidth="1"/>
+    <col min="77" max="16384" width="16.3516" style="56" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="56">
+      <c r="A1" t="s" s="57">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="57"/>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="57"/>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="57"/>
-      <c r="AK1" s="57"/>
-      <c r="AL1" s="57"/>
-      <c r="AM1" s="57"/>
-      <c r="AN1" s="57"/>
-      <c r="AO1" s="57"/>
-      <c r="AP1" s="57"/>
-      <c r="AQ1" s="58"/>
-      <c r="AR1" s="57"/>
-      <c r="AS1" s="57"/>
-      <c r="AT1" s="59"/>
-      <c r="AU1" s="60"/>
-      <c r="AV1" s="60"/>
-      <c r="AW1" s="60"/>
-      <c r="AX1" s="60"/>
-      <c r="AY1" s="60"/>
-      <c r="AZ1" s="60"/>
-      <c r="BA1" s="60"/>
-      <c r="BB1" s="60"/>
-      <c r="BC1" s="60"/>
-      <c r="BD1" s="60"/>
-      <c r="BE1" s="60"/>
-      <c r="BF1" s="60"/>
-      <c r="BG1" s="60"/>
-      <c r="BH1" s="60"/>
-      <c r="BI1" s="60"/>
-      <c r="BJ1" s="60"/>
-      <c r="BK1" s="60"/>
-      <c r="BL1" s="60"/>
-      <c r="BM1" s="60"/>
-      <c r="BN1" s="60"/>
-      <c r="BO1" s="60"/>
-      <c r="BP1" s="60"/>
-      <c r="BQ1" s="60"/>
-      <c r="BR1" s="60"/>
-      <c r="BS1" s="60"/>
-      <c r="BT1" s="60"/>
-      <c r="BU1" s="60"/>
-      <c r="BV1" s="60"/>
-      <c r="BW1" s="60"/>
-      <c r="BX1" s="60"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="58"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="58"/>
+      <c r="AI1" s="58"/>
+      <c r="AJ1" s="58"/>
+      <c r="AK1" s="58"/>
+      <c r="AL1" s="58"/>
+      <c r="AM1" s="58"/>
+      <c r="AN1" s="58"/>
+      <c r="AO1" s="58"/>
+      <c r="AP1" s="58"/>
+      <c r="AQ1" s="59"/>
+      <c r="AR1" s="58"/>
+      <c r="AS1" s="58"/>
+      <c r="AT1" s="60"/>
+      <c r="AU1" s="61"/>
+      <c r="AV1" s="61"/>
+      <c r="AW1" s="61"/>
+      <c r="AX1" s="61"/>
+      <c r="AY1" s="61"/>
+      <c r="AZ1" s="61"/>
+      <c r="BA1" s="61"/>
+      <c r="BB1" s="61"/>
+      <c r="BC1" s="61"/>
+      <c r="BD1" s="61"/>
+      <c r="BE1" s="61"/>
+      <c r="BF1" s="61"/>
+      <c r="BG1" s="61"/>
+      <c r="BH1" s="61"/>
+      <c r="BI1" s="61"/>
+      <c r="BJ1" s="61"/>
+      <c r="BK1" s="61"/>
+      <c r="BL1" s="61"/>
+      <c r="BM1" s="61"/>
+      <c r="BN1" s="61"/>
+      <c r="BO1" s="61"/>
+      <c r="BP1" s="61"/>
+      <c r="BQ1" s="61"/>
+      <c r="BR1" s="61"/>
+      <c r="BS1" s="61"/>
+      <c r="BT1" s="61"/>
+      <c r="BU1" s="61"/>
+      <c r="BV1" s="61"/>
+      <c r="BW1" s="61"/>
+      <c r="BX1" s="61"/>
     </row>
     <row r="2" ht="47.5" customHeight="1">
       <c r="A2" s="6"/>
@@ -11094,10 +11117,10 @@
       <c r="AN2" s="6"/>
       <c r="AO2" s="6"/>
       <c r="AP2" t="s" s="5">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="AQ2" t="s" s="5">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="AR2" t="s" s="5">
         <v>20</v>
@@ -11128,7 +11151,7 @@
       <c r="BJ2" s="52"/>
       <c r="BK2" s="52"/>
       <c r="BL2" t="s" s="5">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="BM2" s="52"/>
       <c r="BN2" s="52"/>
@@ -11168,7 +11191,7 @@
         <v>73</v>
       </c>
       <c r="H3" t="s" s="8">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="I3" t="s" s="8">
         <v>75</v>
@@ -11207,7 +11230,7 @@
         <v>87</v>
       </c>
       <c r="U3" t="s" s="8">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="V3" t="s" s="8">
         <v>91</v>
@@ -11258,13 +11281,13 @@
         <v>105</v>
       </c>
       <c r="AL3" t="s" s="8">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="AM3" t="s" s="8">
         <v>108</v>
       </c>
       <c r="AN3" t="s" s="8">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="AO3" t="s" s="8">
         <v>53</v>
@@ -11300,16 +11323,16 @@
         <v>161</v>
       </c>
       <c r="AZ3" t="s" s="8">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="BA3" t="s" s="8">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="BB3" t="s" s="8">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="BC3" t="s" s="8">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="BD3" t="s" s="8">
         <v>166</v>
@@ -11321,7 +11344,7 @@
         <v>170</v>
       </c>
       <c r="BG3" t="s" s="8">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="BH3" t="s" s="8">
         <v>172</v>
@@ -11336,19 +11359,19 @@
         <v>175</v>
       </c>
       <c r="BL3" t="s" s="8">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="BM3" t="s" s="8">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="BN3" t="s" s="8">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="BO3" t="s" s="8">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="BP3" t="s" s="8">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="BQ3" t="s" s="8">
         <v>176</v>
@@ -11372,7 +11395,7 @@
         <v>157</v>
       </c>
       <c r="BX3" t="s" s="8">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" ht="26.7" customHeight="1">
@@ -11383,97 +11406,97 @@
         <v>305</v>
       </c>
       <c r="C4" t="s" s="40">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="D4" t="s" s="40">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="E4" t="s" s="40">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="F4" t="s" s="40">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="G4" t="s" s="40">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="H4" t="s" s="40">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="I4" t="s" s="40">
         <v>334</v>
       </c>
       <c r="J4" t="s" s="40">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="K4" t="s" s="40">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="L4" t="s" s="40">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="M4" t="s" s="40">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="N4" t="s" s="40">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="O4" t="s" s="40">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="P4" t="s" s="40">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="Q4" t="s" s="40">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="R4" t="s" s="40">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="S4" t="s" s="40">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="T4" t="s" s="40">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="U4" t="s" s="40">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="V4" t="s" s="40">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="W4" t="s" s="40">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="X4" t="s" s="40">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="Y4" t="s" s="40">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="Z4" t="s" s="40">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="AA4" t="s" s="40">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="AB4" t="s" s="40">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="AC4" t="s" s="40">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="AD4" t="s" s="40">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="AE4" t="s" s="40">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="AF4" t="s" s="40">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="AG4" t="s" s="40">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="AH4" t="s" s="40">
         <v>376</v>
@@ -11488,16 +11511,16 @@
         <v>375</v>
       </c>
       <c r="AL4" t="s" s="40">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="AM4" t="s" s="40">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="AN4" t="s" s="40">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="AO4" t="s" s="40">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="AP4" t="s" s="40">
         <v>378</v>
@@ -11506,25 +11529,25 @@
         <v>369</v>
       </c>
       <c r="AR4" t="s" s="40">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="AS4" t="s" s="40">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="AT4" t="s" s="40">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="AU4" t="s" s="40">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="AV4" t="s" s="40">
         <v>395</v>
       </c>
       <c r="AW4" t="s" s="40">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="AX4" t="s" s="40">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="AY4" t="s" s="40">
         <v>394</v>
@@ -11536,90 +11559,90 @@
         <v>393</v>
       </c>
       <c r="BB4" t="s" s="40">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="BC4" t="s" s="40">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="BD4" t="s" s="40">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="BE4" t="s" s="40">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="BF4" t="s" s="40">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="BG4" t="s" s="40">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="BH4" t="s" s="40">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="BI4" t="s" s="40">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="BJ4" t="s" s="40">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="BK4" t="s" s="40">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="BL4" t="s" s="40">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="BM4" t="s" s="40">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="BN4" t="s" s="40">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="BO4" t="s" s="40">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="BP4" t="s" s="40">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="BQ4" t="s" s="40">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="BR4" t="s" s="40">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="BS4" t="s" s="40">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="BT4" t="s" s="40">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="BU4" t="s" s="40">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="BV4" t="s" s="40">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="BW4" t="s" s="40">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="BX4" t="s" s="40">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" t="s" s="49">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B5" t="s" s="50">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C5" t="s" s="43">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="D5" t="s" s="43">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="E5" t="s" s="43">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="F5" s="51">
         <v>73</v>
@@ -11631,28 +11654,28 @@
         <v>80</v>
       </c>
       <c r="I5" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="J5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="K5" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="L5" s="51">
         <v>90</v>
       </c>
       <c r="M5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="N5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="O5" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="P5" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="Q5" s="51">
         <v>90</v>
@@ -11661,28 +11684,28 @@
         <v>60</v>
       </c>
       <c r="S5" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="T5" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="U5" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="V5" s="51">
         <v>90</v>
       </c>
       <c r="W5" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="X5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="Y5" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="Z5" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AA5" s="51">
         <v>90</v>
@@ -11703,37 +11726,37 @@
         <v>80</v>
       </c>
       <c r="AG5" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AH5" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AI5" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AJ5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AK5" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AL5" t="s" s="43">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="AM5" t="s" s="43">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="AN5" t="s" s="43">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="AO5" s="51">
         <v>89</v>
       </c>
       <c r="AP5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AQ5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AR5" s="52"/>
       <c r="AS5" s="52"/>
@@ -11746,7 +11769,7 @@
       <c r="AZ5" s="52"/>
       <c r="BA5" s="52"/>
       <c r="BB5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="BC5" s="52"/>
       <c r="BD5" s="52"/>
@@ -11773,16 +11796,16 @@
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" t="s" s="49">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B6" t="s" s="50">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C6" t="s" s="43">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="D6" t="s" s="43">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="E6" s="51">
         <v>605</v>
@@ -11797,28 +11820,28 @@
         <v>80</v>
       </c>
       <c r="I6" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="J6" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="K6" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="L6" s="51">
         <v>80</v>
       </c>
       <c r="M6" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="N6" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="O6" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="P6" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="Q6" s="51">
         <v>80</v>
@@ -11827,28 +11850,28 @@
         <v>60</v>
       </c>
       <c r="S6" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="T6" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="U6" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="V6" s="51">
         <v>80</v>
       </c>
       <c r="W6" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="X6" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="Y6" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="Z6" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AA6" s="51">
         <v>60</v>
@@ -11869,37 +11892,37 @@
         <v>70</v>
       </c>
       <c r="AG6" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AH6" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AI6" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AJ6" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AK6" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AL6" t="s" s="43">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="AM6" t="s" s="43">
+        <v>698</v>
+      </c>
+      <c r="AN6" t="s" s="43">
         <v>696</v>
-      </c>
-      <c r="AN6" t="s" s="43">
-        <v>694</v>
       </c>
       <c r="AO6" s="51">
         <v>79</v>
       </c>
       <c r="AP6" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AQ6" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AR6" s="52"/>
       <c r="AS6" s="52"/>
@@ -11913,7 +11936,7 @@
       <c r="BA6" s="52"/>
       <c r="BB6" s="52"/>
       <c r="BC6" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="BD6" s="52"/>
       <c r="BE6" s="52"/>
@@ -11939,16 +11962,16 @@
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" t="s" s="49">
+        <v>614</v>
+      </c>
+      <c r="B7" t="s" s="50">
+        <v>615</v>
+      </c>
+      <c r="C7" t="s" s="43">
         <v>612</v>
       </c>
-      <c r="B7" t="s" s="50">
-        <v>613</v>
-      </c>
-      <c r="C7" t="s" s="43">
-        <v>610</v>
-      </c>
       <c r="D7" t="s" s="43">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="E7" s="51">
         <v>603</v>
@@ -11963,28 +11986,28 @@
         <v>70</v>
       </c>
       <c r="I7" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="J7" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="K7" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="L7" s="51">
         <v>69</v>
       </c>
       <c r="M7" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="N7" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="O7" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="P7" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="Q7" s="51">
         <v>50</v>
@@ -11993,28 +12016,28 @@
         <v>50</v>
       </c>
       <c r="S7" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="T7" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="U7" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="V7" s="51">
         <v>79</v>
       </c>
       <c r="W7" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="X7" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="Y7" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="Z7" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AA7" s="51">
         <v>50</v>
@@ -12035,37 +12058,37 @@
         <v>40</v>
       </c>
       <c r="AG7" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AH7" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AI7" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AJ7" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AK7" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AL7" t="s" s="43">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="AM7" t="s" s="43">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="AN7" t="s" s="43">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="AO7" s="51">
         <v>239</v>
       </c>
       <c r="AP7" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AQ7" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AR7" s="52"/>
       <c r="AS7" s="52"/>
@@ -12103,16 +12126,16 @@
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" t="s" s="49">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B8" t="s" s="50">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C8" t="s" s="43">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="D8" t="s" s="43">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="E8" s="51">
         <v>606</v>
@@ -12127,28 +12150,28 @@
         <v>50</v>
       </c>
       <c r="I8" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="J8" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="K8" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="L8" s="51">
         <v>70</v>
       </c>
       <c r="M8" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="N8" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="O8" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="P8" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="Q8" s="51">
         <v>50</v>
@@ -12157,28 +12180,28 @@
         <v>50</v>
       </c>
       <c r="S8" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="T8" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="U8" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="V8" s="51">
         <v>99</v>
       </c>
       <c r="W8" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="X8" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="Y8" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="Z8" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AA8" s="51">
         <v>60</v>
@@ -12199,37 +12222,37 @@
         <v>20</v>
       </c>
       <c r="AG8" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AH8" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AI8" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AJ8" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AK8" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AL8" t="s" s="43">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="AM8" t="s" s="43">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="AN8" t="s" s="43">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="AO8" s="51">
         <v>134</v>
       </c>
       <c r="AP8" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AQ8" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AR8" s="52"/>
       <c r="AS8" s="52"/>
@@ -12267,16 +12290,16 @@
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" t="s" s="49">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B9" t="s" s="50">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C9" t="s" s="43">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="D9" t="s" s="43">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="E9" s="51">
         <v>606</v>
@@ -12291,28 +12314,28 @@
         <v>50</v>
       </c>
       <c r="I9" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="J9" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="K9" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="L9" s="51">
         <v>80</v>
       </c>
       <c r="M9" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="N9" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="O9" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="P9" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="Q9" s="51">
         <v>60</v>
@@ -12321,28 +12344,28 @@
         <v>50</v>
       </c>
       <c r="S9" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="T9" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="U9" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="V9" s="51">
         <v>70</v>
       </c>
       <c r="W9" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="X9" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="Y9" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="Z9" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AA9" s="51">
         <v>60</v>
@@ -12363,37 +12386,37 @@
         <v>20</v>
       </c>
       <c r="AG9" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AH9" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AI9" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AJ9" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AK9" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AL9" t="s" s="43">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="AM9" t="s" s="43">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="AN9" t="s" s="43">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="AO9" s="51">
         <v>890</v>
       </c>
       <c r="AP9" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AQ9" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AR9" s="52"/>
       <c r="AS9" s="52"/>
@@ -12430,8 +12453,8 @@
       <c r="BX9" s="52"/>
     </row>
     <row r="10" ht="74.7" customHeight="1">
-      <c r="A10" s="53"/>
-      <c r="B10" s="54"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="52"/>
       <c r="D10" s="52"/>
       <c r="E10" s="52"/>
@@ -12447,10 +12470,10 @@
       <c r="O10" s="52"/>
       <c r="P10" s="52"/>
       <c r="Q10" t="s" s="43">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="R10" t="s" s="43">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="S10" s="52"/>
       <c r="T10" s="52"/>
@@ -12464,13 +12487,13 @@
       <c r="AB10" s="52"/>
       <c r="AC10" s="52"/>
       <c r="AD10" t="s" s="43">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="AE10" s="52"/>
       <c r="AF10" s="52"/>
       <c r="AG10" s="52"/>
       <c r="AH10" t="s" s="43">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="AI10" s="52"/>
       <c r="AJ10" s="52"/>
@@ -12516,8 +12539,8 @@
       <c r="BX10" s="52"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="53"/>
-      <c r="B11" s="54"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="52"/>
       <c r="D11" s="52"/>
       <c r="E11" s="52"/>
@@ -12594,8 +12617,8 @@
       <c r="BX11" s="52"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="53"/>
-      <c r="B12" s="54"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="52"/>
       <c r="D12" s="52"/>
       <c r="E12" s="52"/>
@@ -12672,8 +12695,8 @@
       <c r="BX12" s="52"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="53"/>
-      <c r="B13" s="54"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="52"/>
       <c r="D13" s="52"/>
       <c r="E13" s="52"/>
@@ -12750,8 +12773,8 @@
       <c r="BX13" s="52"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="53"/>
-      <c r="B14" s="54"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="52"/>
       <c r="D14" s="52"/>
       <c r="E14" s="52"/>
@@ -12828,8 +12851,8 @@
       <c r="BX14" s="52"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="53"/>
-      <c r="B15" s="54"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="52"/>
       <c r="D15" s="52"/>
       <c r="E15" s="52"/>
@@ -12906,8 +12929,8 @@
       <c r="BX15" s="52"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="53"/>
-      <c r="B16" s="54"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="52"/>
       <c r="D16" s="52"/>
       <c r="E16" s="52"/>
@@ -12984,8 +13007,8 @@
       <c r="BX16" s="52"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="53"/>
-      <c r="B17" s="54"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="52"/>
       <c r="D17" s="52"/>
       <c r="E17" s="52"/>
@@ -13062,8 +13085,8 @@
       <c r="BX17" s="52"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="53"/>
-      <c r="B18" s="54"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="52"/>
       <c r="D18" s="52"/>
       <c r="E18" s="52"/>
@@ -13140,8 +13163,8 @@
       <c r="BX18" s="52"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="53"/>
-      <c r="B19" s="54"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="55"/>
       <c r="C19" s="52"/>
       <c r="D19" s="52"/>
       <c r="E19" s="52"/>
@@ -13218,8 +13241,8 @@
       <c r="BX19" s="52"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="53"/>
-      <c r="B20" s="54"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="52"/>
       <c r="D20" s="52"/>
       <c r="E20" s="52"/>
@@ -13296,8 +13319,8 @@
       <c r="BX20" s="52"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="53"/>
-      <c r="B21" s="54"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="52"/>
       <c r="D21" s="52"/>
       <c r="E21" s="52"/>
@@ -13374,8 +13397,8 @@
       <c r="BX21" s="52"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="53"/>
-      <c r="B22" s="54"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="55"/>
       <c r="C22" s="52"/>
       <c r="D22" s="52"/>
       <c r="E22" s="52"/>
@@ -13452,8 +13475,8 @@
       <c r="BX22" s="52"/>
     </row>
     <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="53"/>
-      <c r="B23" s="54"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="55"/>
       <c r="C23" s="52"/>
       <c r="D23" s="52"/>
       <c r="E23" s="52"/>
@@ -13530,8 +13553,8 @@
       <c r="BX23" s="52"/>
     </row>
     <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" s="53"/>
-      <c r="B24" s="54"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="55"/>
       <c r="C24" s="52"/>
       <c r="D24" s="52"/>
       <c r="E24" s="52"/>
@@ -13608,8 +13631,8 @@
       <c r="BX24" s="52"/>
     </row>
     <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" s="53"/>
-      <c r="B25" s="54"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="52"/>
       <c r="D25" s="52"/>
       <c r="E25" s="52"/>
@@ -13719,8 +13742,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="23" width="16.3516" style="61" customWidth="1"/>
-    <col min="24" max="16384" width="16.3516" style="61" customWidth="1"/>
+    <col min="1" max="23" width="16.3516" style="62" customWidth="1"/>
+    <col min="24" max="16384" width="16.3516" style="62" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.55" customHeight="1">
@@ -13798,25 +13821,25 @@
         <v>73</v>
       </c>
       <c r="H3" t="s" s="8">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="I3" t="s" s="8">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="J3" t="s" s="8">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="K3" t="s" s="8">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="L3" t="s" s="8">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="M3" t="s" s="8">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="N3" t="s" s="8">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="O3" t="s" s="8">
         <v>88</v>
@@ -13844,25 +13867,25 @@
     </row>
     <row r="4" ht="14.7" customHeight="1">
       <c r="A4" t="s" s="38">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B4" t="s" s="47">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="C4" t="s" s="40">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="D4" t="s" s="40">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="E4" t="s" s="40">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="F4" t="s" s="40">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="G4" t="s" s="40">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="H4" t="s" s="40">
         <v>376</v>
@@ -13871,47 +13894,47 @@
         <v>378</v>
       </c>
       <c r="J4" t="s" s="40">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="K4" t="s" s="40">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="L4" t="s" s="40">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="M4" t="s" s="40">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="N4" t="s" s="40">
         <v>391</v>
       </c>
       <c r="O4" t="s" s="40">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="P4" t="s" s="40">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="Q4" t="s" s="40">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="R4" t="s" s="40">
         <v>395</v>
       </c>
       <c r="S4" t="s" s="40">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="T4" t="s" s="40">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="U4" t="s" s="40">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="V4" s="40"/>
-      <c r="W4" s="62"/>
+      <c r="W4" s="63"/>
     </row>
     <row r="5" ht="14.35" customHeight="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="52"/>
       <c r="D5" s="52"/>
       <c r="E5" s="52"/>
@@ -13935,8 +13958,8 @@
       <c r="W5" s="52"/>
     </row>
     <row r="6" ht="14.05" customHeight="1">
-      <c r="A6" s="53"/>
-      <c r="B6" s="54"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="52"/>
       <c r="D6" s="52"/>
       <c r="E6" s="52"/>
@@ -13960,8 +13983,8 @@
       <c r="W6" s="52"/>
     </row>
     <row r="7" ht="14.05" customHeight="1">
-      <c r="A7" s="53"/>
-      <c r="B7" s="54"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="52"/>
       <c r="D7" s="52"/>
       <c r="E7" s="52"/>
@@ -13985,8 +14008,8 @@
       <c r="W7" s="52"/>
     </row>
     <row r="8" ht="14.05" customHeight="1">
-      <c r="A8" s="53"/>
-      <c r="B8" s="54"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="52"/>
       <c r="D8" s="52"/>
       <c r="E8" s="52"/>
@@ -14010,8 +14033,8 @@
       <c r="W8" s="52"/>
     </row>
     <row r="9" ht="14.05" customHeight="1">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="52"/>
       <c r="D9" s="52"/>
       <c r="E9" s="52"/>
@@ -14035,8 +14058,8 @@
       <c r="W9" s="52"/>
     </row>
     <row r="10" ht="14.05" customHeight="1">
-      <c r="A10" s="53"/>
-      <c r="B10" s="54"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="52"/>
       <c r="D10" s="52"/>
       <c r="E10" s="52"/>
@@ -14060,8 +14083,8 @@
       <c r="W10" s="52"/>
     </row>
     <row r="11" ht="14.05" customHeight="1">
-      <c r="A11" s="53"/>
-      <c r="B11" s="54"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="52"/>
       <c r="D11" s="52"/>
       <c r="E11" s="52"/>
@@ -14107,8 +14130,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="46" width="16.3516" style="63" customWidth="1"/>
-    <col min="47" max="16384" width="16.3516" style="63" customWidth="1"/>
+    <col min="1" max="46" width="16.3516" style="64" customWidth="1"/>
+    <col min="47" max="16384" width="16.3516" style="64" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.55" customHeight="1">
@@ -14163,7 +14186,7 @@
     </row>
     <row r="2" ht="61" customHeight="1">
       <c r="A2" t="s" s="5">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -14172,7 +14195,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" t="s" s="5">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
@@ -14191,7 +14214,7 @@
       <c r="S2" s="6"/>
       <c r="T2" s="6"/>
       <c r="U2" t="s" s="9">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="V2" s="6"/>
       <c r="W2" s="6"/>
@@ -14228,22 +14251,22 @@
     <row r="3" ht="115" customHeight="1">
       <c r="A3" s="10"/>
       <c r="B3" t="s" s="11">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C3" t="s" s="11">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="D3" t="s" s="11">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="E3" t="s" s="11">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="F3" t="s" s="11">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="G3" t="s" s="11">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="H3" t="s" s="8">
         <v>146</v>
@@ -14285,16 +14308,16 @@
         <v>157</v>
       </c>
       <c r="U3" t="s" s="8">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="V3" t="s" s="8">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="W3" t="s" s="8">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="X3" t="s" s="8">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="Y3" t="s" s="31">
         <v>162</v>
@@ -14360,28 +14383,28 @@
         <v>157</v>
       </c>
       <c r="AT3" t="s" s="8">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" ht="14.7" customHeight="1">
-      <c r="A4" s="64"/>
+      <c r="A4" s="65"/>
       <c r="B4" t="s" s="40">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C4" t="s" s="40">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="D4" t="s" s="40">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="E4" t="s" s="40">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="F4" t="s" s="40">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="G4" t="s" s="40">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="H4" t="s" s="40">
         <v>369</v>
@@ -14390,37 +14413,37 @@
         <v>371</v>
       </c>
       <c r="J4" t="s" s="40">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="K4" t="s" s="40">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="L4" t="s" s="40">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="M4" t="s" s="40">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="N4" t="s" s="40">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="O4" t="s" s="40">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="P4" t="s" s="40">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="Q4" t="s" s="40">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="R4" t="s" s="40">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="S4" t="s" s="40">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="T4" t="s" s="40">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="U4" t="s" s="40">
         <v>376</v>
@@ -14435,74 +14458,74 @@
         <v>384</v>
       </c>
       <c r="Y4" t="s" s="40">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="Z4" t="s" s="46">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="AA4" t="s" s="40">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="AB4" t="s" s="40">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="AC4" t="s" s="40">
         <v>391</v>
       </c>
       <c r="AD4" t="s" s="40">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="AE4" t="s" s="40">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="AF4" t="s" s="40">
         <v>348</v>
       </c>
       <c r="AG4" t="s" s="40">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="AH4" t="s" s="40">
         <v>395</v>
       </c>
       <c r="AI4" t="s" s="40">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="AJ4" t="s" s="40">
+        <v>640</v>
+      </c>
+      <c r="AK4" t="s" s="40">
         <v>638</v>
       </c>
-      <c r="AK4" t="s" s="40">
-        <v>636</v>
-      </c>
       <c r="AL4" t="s" s="40">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="AM4" t="s" s="40">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="AN4" t="s" s="40">
+        <v>673</v>
+      </c>
+      <c r="AO4" t="s" s="40">
+        <v>641</v>
+      </c>
+      <c r="AP4" t="s" s="40">
+        <v>642</v>
+      </c>
+      <c r="AQ4" t="s" s="40">
         <v>671</v>
       </c>
-      <c r="AO4" t="s" s="40">
-        <v>639</v>
-      </c>
-      <c r="AP4" t="s" s="40">
-        <v>640</v>
-      </c>
-      <c r="AQ4" t="s" s="40">
-        <v>669</v>
-      </c>
       <c r="AR4" t="s" s="40">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="AS4" t="s" s="40">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="AT4" t="s" s="40">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="5" ht="14.7" customHeight="1">
-      <c r="A5" s="65"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="52"/>
       <c r="C5" s="52"/>
       <c r="D5" s="52"/>
@@ -14510,10 +14533,10 @@
       <c r="F5" s="52"/>
       <c r="G5" s="52"/>
       <c r="H5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="I5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="J5" s="52"/>
       <c r="K5" s="52"/>
@@ -14554,7 +14577,7 @@
       <c r="AT5" s="52"/>
     </row>
     <row r="6" ht="19" customHeight="1">
-      <c r="A6" s="65"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="52"/>
       <c r="C6" s="52"/>
       <c r="D6" s="52"/>
@@ -14562,10 +14585,10 @@
       <c r="F6" s="52"/>
       <c r="G6" s="52"/>
       <c r="H6" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="I6" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="J6" s="52"/>
       <c r="K6" s="52"/>
@@ -14586,13 +14609,13 @@
       <c r="Z6" s="52"/>
       <c r="AA6" s="52"/>
       <c r="AB6" t="s" s="43">
-        <v>611</v>
-      </c>
-      <c r="AC6" s="66"/>
+        <v>613</v>
+      </c>
+      <c r="AC6" s="67"/>
       <c r="AD6" s="52"/>
-      <c r="AE6" s="66"/>
-      <c r="AF6" s="66"/>
-      <c r="AG6" s="66"/>
+      <c r="AE6" s="67"/>
+      <c r="AF6" s="67"/>
+      <c r="AG6" s="67"/>
       <c r="AH6" s="52"/>
       <c r="AI6" s="52"/>
       <c r="AJ6" s="52"/>
@@ -14608,7 +14631,7 @@
       <c r="AT6" s="52"/>
     </row>
     <row r="7" ht="19" customHeight="1">
-      <c r="A7" s="65"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="52"/>
       <c r="C7" s="52"/>
       <c r="D7" s="52"/>
@@ -14616,10 +14639,10 @@
       <c r="F7" s="52"/>
       <c r="G7" s="52"/>
       <c r="H7" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="I7" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="J7" s="52"/>
       <c r="K7" s="52"/>
@@ -14644,13 +14667,13 @@
       <c r="AD7" s="52"/>
       <c r="AE7" s="52"/>
       <c r="AF7" s="52"/>
-      <c r="AG7" s="66"/>
+      <c r="AG7" s="67"/>
       <c r="AH7" s="52"/>
       <c r="AI7" s="52"/>
       <c r="AJ7" s="52"/>
       <c r="AK7" s="52"/>
       <c r="AL7" s="52"/>
-      <c r="AM7" s="66"/>
+      <c r="AM7" s="67"/>
       <c r="AN7" s="52"/>
       <c r="AO7" s="52"/>
       <c r="AP7" s="52"/>
@@ -14660,7 +14683,7 @@
       <c r="AT7" s="52"/>
     </row>
     <row r="8" ht="14.7" customHeight="1">
-      <c r="A8" s="65"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="52"/>
       <c r="C8" s="52"/>
       <c r="D8" s="52"/>
@@ -14668,10 +14691,10 @@
       <c r="F8" s="52"/>
       <c r="G8" s="52"/>
       <c r="H8" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="I8" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="J8" s="52"/>
       <c r="K8" s="52"/>
@@ -14712,7 +14735,7 @@
       <c r="AT8" s="52"/>
     </row>
     <row r="9" ht="19" customHeight="1">
-      <c r="A9" s="65"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="52"/>
       <c r="C9" s="52"/>
       <c r="D9" s="52"/>
@@ -14720,10 +14743,10 @@
       <c r="F9" s="52"/>
       <c r="G9" s="52"/>
       <c r="H9" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="I9" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="J9" s="52"/>
       <c r="K9" s="52"/>
@@ -14740,17 +14763,17 @@
       <c r="V9" s="52"/>
       <c r="W9" s="52"/>
       <c r="X9" s="52"/>
-      <c r="Y9" s="66"/>
-      <c r="Z9" s="66"/>
-      <c r="AA9" s="66"/>
-      <c r="AB9" s="66"/>
-      <c r="AC9" s="66"/>
+      <c r="Y9" s="67"/>
+      <c r="Z9" s="67"/>
+      <c r="AA9" s="67"/>
+      <c r="AB9" s="67"/>
+      <c r="AC9" s="67"/>
       <c r="AD9" s="52"/>
       <c r="AE9" s="52"/>
       <c r="AF9" s="52"/>
       <c r="AG9" s="52"/>
       <c r="AH9" s="52"/>
-      <c r="AI9" s="66"/>
+      <c r="AI9" s="67"/>
       <c r="AJ9" s="52"/>
       <c r="AK9" s="52"/>
       <c r="AL9" s="52"/>
@@ -14764,7 +14787,7 @@
       <c r="AT9" s="52"/>
     </row>
     <row r="10" ht="14.7" customHeight="1">
-      <c r="A10" s="65"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="52"/>
       <c r="C10" s="52"/>
       <c r="D10" s="52"/>
@@ -14812,8 +14835,8 @@
       <c r="AT10" s="52"/>
     </row>
     <row r="11" ht="14.35" customHeight="1">
-      <c r="A11" s="53"/>
-      <c r="B11" s="54"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="52"/>
       <c r="D11" s="52"/>
       <c r="E11" s="52"/>
@@ -14887,10 +14910,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="16.3516" style="67" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="67" customWidth="1"/>
-    <col min="4" max="37" width="16.3516" style="67" customWidth="1"/>
-    <col min="38" max="16384" width="16.3516" style="67" customWidth="1"/>
+    <col min="1" max="2" width="16.3516" style="68" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="68" customWidth="1"/>
+    <col min="4" max="37" width="16.3516" style="68" customWidth="1"/>
+    <col min="38" max="16384" width="16.3516" style="68" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.55" customHeight="1">
@@ -14936,10 +14959,10 @@
     </row>
     <row r="2" ht="38.7" customHeight="1">
       <c r="A2" t="s" s="5">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B2" t="s" s="5">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -14972,7 +14995,7 @@
       <c r="W2" s="6"/>
       <c r="X2" s="6"/>
       <c r="Y2" t="s" s="5">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="Z2" s="6"/>
       <c r="AA2" s="6"/>
@@ -15027,16 +15050,16 @@
         <v>161</v>
       </c>
       <c r="M3" t="s" s="8">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="N3" t="s" s="8">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="O3" t="s" s="8">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="P3" t="s" s="8">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="Q3" t="s" s="8">
         <v>166</v>
@@ -15048,7 +15071,7 @@
         <v>170</v>
       </c>
       <c r="T3" t="s" s="8">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="U3" t="s" s="8">
         <v>172</v>
@@ -15063,19 +15086,19 @@
         <v>175</v>
       </c>
       <c r="Y3" t="s" s="8">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="Z3" t="s" s="8">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="AA3" t="s" s="8">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="AB3" t="s" s="8">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AC3" t="s" s="8">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="AD3" t="s" s="8">
         <v>176</v>
@@ -15099,42 +15122,42 @@
         <v>157</v>
       </c>
       <c r="AK3" t="s" s="8">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" ht="26.7" customHeight="1">
-      <c r="A4" t="s" s="68">
+      <c r="A4" t="s" s="69">
         <v>378</v>
       </c>
       <c r="B4" t="s" s="40">
         <v>369</v>
       </c>
       <c r="C4" t="s" s="40">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="D4" t="s" s="40">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="E4" t="s" s="40">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="F4" t="s" s="40">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="G4" t="s" s="40">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="H4" t="s" s="40">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="I4" t="s" s="40">
         <v>395</v>
       </c>
       <c r="J4" t="s" s="40">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="K4" t="s" s="40">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="L4" t="s" s="40">
         <v>394</v>
@@ -15146,81 +15169,81 @@
         <v>393</v>
       </c>
       <c r="O4" t="s" s="40">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P4" t="s" s="40">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="Q4" t="s" s="40">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="R4" t="s" s="40">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="S4" t="s" s="40">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="T4" t="s" s="40">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="U4" t="s" s="40">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="V4" t="s" s="40">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="W4" t="s" s="40">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="X4" t="s" s="40">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="Y4" t="s" s="40">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="Z4" t="s" s="40">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="AA4" t="s" s="40">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="AB4" t="s" s="40">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="AC4" t="s" s="40">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="AD4" t="s" s="40">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="AE4" t="s" s="40">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="AF4" t="s" s="40">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="AG4" t="s" s="40">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="AH4" t="s" s="40">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="AI4" t="s" s="40">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="AJ4" t="s" s="40">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="AK4" t="s" s="40">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="5" ht="14.7" customHeight="1">
-      <c r="A5" t="s" s="69">
-        <v>581</v>
+      <c r="A5" t="s" s="70">
+        <v>583</v>
       </c>
       <c r="B5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C5" s="52"/>
       <c r="D5" s="52"/>
@@ -15235,7 +15258,7 @@
       <c r="M5" s="52"/>
       <c r="N5" s="52"/>
       <c r="O5" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="P5" s="52"/>
       <c r="Q5" s="52"/>
@@ -15261,11 +15284,11 @@
       <c r="AK5" s="52"/>
     </row>
     <row r="6" ht="14.7" customHeight="1">
-      <c r="A6" t="s" s="69">
-        <v>581</v>
+      <c r="A6" t="s" s="70">
+        <v>583</v>
       </c>
       <c r="B6" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C6" s="52"/>
       <c r="D6" s="52"/>
@@ -15281,7 +15304,7 @@
       <c r="N6" s="52"/>
       <c r="O6" s="52"/>
       <c r="P6" t="s" s="43">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="Q6" s="52"/>
       <c r="R6" s="52"/>
@@ -15306,11 +15329,11 @@
       <c r="AK6" s="52"/>
     </row>
     <row r="7" ht="14.7" customHeight="1">
-      <c r="A7" t="s" s="69">
-        <v>581</v>
+      <c r="A7" t="s" s="70">
+        <v>583</v>
       </c>
       <c r="B7" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C7" s="52"/>
       <c r="D7" s="52"/>
@@ -15349,11 +15372,11 @@
       <c r="AK7" s="52"/>
     </row>
     <row r="8" ht="14.7" customHeight="1">
-      <c r="A8" t="s" s="69">
-        <v>611</v>
+      <c r="A8" t="s" s="70">
+        <v>613</v>
       </c>
       <c r="B8" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C8" s="52"/>
       <c r="D8" s="52"/>
@@ -15392,11 +15415,11 @@
       <c r="AK8" s="52"/>
     </row>
     <row r="9" ht="14.7" customHeight="1">
-      <c r="A9" t="s" s="69">
-        <v>611</v>
+      <c r="A9" t="s" s="70">
+        <v>613</v>
       </c>
       <c r="B9" t="s" s="43">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C9" s="52"/>
       <c r="D9" s="52"/>
@@ -15435,7 +15458,7 @@
       <c r="AK9" s="52"/>
     </row>
     <row r="10" ht="14.7" customHeight="1">
-      <c r="A10" s="65"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="52"/>
       <c r="C10" s="52"/>
       <c r="D10" s="52"/>
@@ -15474,8 +15497,8 @@
       <c r="AK10" s="52"/>
     </row>
     <row r="11" ht="14.35" customHeight="1">
-      <c r="A11" s="53"/>
-      <c r="B11" s="54"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="52"/>
       <c r="D11" s="52"/>
       <c r="E11" s="52"/>
@@ -15540,14 +15563,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="3" width="16.3516" style="70" customWidth="1"/>
-    <col min="4" max="4" width="19.8516" style="70" customWidth="1"/>
-    <col min="5" max="14" width="16.3516" style="70" customWidth="1"/>
-    <col min="15" max="15" width="17.5" style="70" customWidth="1"/>
-    <col min="16" max="23" width="16.3516" style="70" customWidth="1"/>
-    <col min="24" max="24" width="19" style="70" customWidth="1"/>
-    <col min="25" max="40" width="16.3516" style="70" customWidth="1"/>
-    <col min="41" max="16384" width="16.3516" style="70" customWidth="1"/>
+    <col min="1" max="3" width="16.3516" style="71" customWidth="1"/>
+    <col min="4" max="4" width="19.8516" style="71" customWidth="1"/>
+    <col min="5" max="14" width="16.3516" style="71" customWidth="1"/>
+    <col min="15" max="15" width="17.5" style="71" customWidth="1"/>
+    <col min="16" max="23" width="16.3516" style="71" customWidth="1"/>
+    <col min="24" max="24" width="19" style="71" customWidth="1"/>
+    <col min="25" max="40" width="16.3516" style="71" customWidth="1"/>
+    <col min="41" max="16384" width="16.3516" style="71" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.55" customHeight="1">
@@ -15599,8 +15622,8 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
       <c r="G2" t="s" s="9">
         <v>14</v>
       </c>
@@ -15625,39 +15648,39 @@
       <c r="X2" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="Y2" s="71"/>
-      <c r="Z2" s="71"/>
-      <c r="AA2" s="71"/>
-      <c r="AB2" s="71"/>
-      <c r="AC2" s="71"/>
-      <c r="AD2" s="71"/>
-      <c r="AE2" s="71"/>
-      <c r="AF2" s="71"/>
+      <c r="Y2" s="72"/>
+      <c r="Z2" s="72"/>
+      <c r="AA2" s="72"/>
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="72"/>
+      <c r="AF2" s="72"/>
       <c r="AG2" t="s" s="9">
         <v>17</v>
       </c>
       <c r="AH2" t="s" s="9">
-        <v>747</v>
-      </c>
-      <c r="AI2" s="71"/>
-      <c r="AJ2" s="71"/>
-      <c r="AK2" s="71"/>
-      <c r="AL2" s="71"/>
-      <c r="AM2" s="71"/>
-      <c r="AN2" s="71"/>
+        <v>749</v>
+      </c>
+      <c r="AI2" s="72"/>
+      <c r="AJ2" s="72"/>
+      <c r="AK2" s="72"/>
+      <c r="AL2" s="72"/>
+      <c r="AM2" s="72"/>
+      <c r="AN2" s="72"/>
     </row>
     <row r="3" ht="238.55" customHeight="1">
       <c r="A3" t="s" s="8">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B3" t="s" s="8">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="C3" t="s" s="8">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="D3" t="s" s="8">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E3" t="s" s="11">
         <v>112</v>
@@ -15708,10 +15731,10 @@
         <v>127</v>
       </c>
       <c r="U3" t="s" s="11">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="V3" t="s" s="11">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="W3" t="s" s="11">
         <v>128</v>
@@ -15747,45 +15770,45 @@
         <v>142</v>
       </c>
       <c r="AH3" t="s" s="11">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="AI3" t="s" s="11">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="AJ3" t="s" s="11">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="AK3" t="s" s="11">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="AL3" t="s" s="11">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="AM3" t="s" s="11">
         <v>145</v>
       </c>
       <c r="AN3" t="s" s="11">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="4" ht="18.55" customHeight="1">
       <c r="A4" t="s" s="38">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B4" t="s" s="47">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="C4" t="s" s="40">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="D4" t="s" s="40">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="E4" t="s" s="40">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="F4" t="s" s="40">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="G4" t="s" s="45">
         <v>369</v>
@@ -15794,7 +15817,7 @@
         <v>370</v>
       </c>
       <c r="I4" t="s" s="40">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="J4" t="s" s="40">
         <v>372</v>
@@ -15812,7 +15835,7 @@
         <v>376</v>
       </c>
       <c r="O4" t="s" s="40">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="P4" t="s" s="40">
         <v>378</v>
@@ -15821,78 +15844,78 @@
         <v>379</v>
       </c>
       <c r="R4" t="s" s="40">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="S4" t="s" s="40">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="T4" t="s" s="40">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="U4" t="s" s="40">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="V4" t="s" s="40">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="W4" t="s" s="40">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="X4" t="s" s="40">
-        <v>649</v>
-      </c>
-      <c r="Y4" s="72">
+        <v>651</v>
+      </c>
+      <c r="Y4" s="73">
         <v>121</v>
       </c>
       <c r="Z4" t="s" s="40">
-        <v>653</v>
-      </c>
-      <c r="AA4" s="72">
+        <v>655</v>
+      </c>
+      <c r="AA4" s="73">
         <v>120</v>
       </c>
-      <c r="AB4" s="72">
+      <c r="AB4" s="73">
         <v>122</v>
       </c>
-      <c r="AC4" s="72">
+      <c r="AC4" s="73">
         <v>1225</v>
       </c>
       <c r="AD4" t="s" s="40">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="AE4" t="s" s="40">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="AF4" t="s" s="40">
-        <v>767</v>
-      </c>
-      <c r="AG4" s="72">
+        <v>769</v>
+      </c>
+      <c r="AG4" s="73">
         <v>12255</v>
       </c>
       <c r="AH4" t="s" s="40">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="AI4" t="s" s="40">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="AJ4" t="s" s="40">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="AK4" t="s" s="40">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="AL4" t="s" s="40">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="AM4" t="s" s="40">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="AN4" t="s" s="40">
-        <v>773</v>
+        <v>775</v>
       </c>
     </row>
     <row r="5" ht="14.05" customHeight="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="52"/>
       <c r="D5" s="52"/>
       <c r="E5" s="52"/>
@@ -15933,8 +15956,8 @@
       <c r="AN5" s="52"/>
     </row>
     <row r="6" ht="14.05" customHeight="1">
-      <c r="A6" s="53"/>
-      <c r="B6" s="54"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="52"/>
       <c r="D6" s="52"/>
       <c r="E6" s="52"/>
@@ -15975,8 +15998,8 @@
       <c r="AN6" s="52"/>
     </row>
     <row r="7" ht="14.05" customHeight="1">
-      <c r="A7" s="53"/>
-      <c r="B7" s="54"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="52"/>
       <c r="D7" s="52"/>
       <c r="E7" s="52"/>
@@ -16017,8 +16040,8 @@
       <c r="AN7" s="52"/>
     </row>
     <row r="8" ht="14.05" customHeight="1">
-      <c r="A8" s="53"/>
-      <c r="B8" s="54"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="52"/>
       <c r="D8" s="52"/>
       <c r="E8" s="52"/>
@@ -16059,8 +16082,8 @@
       <c r="AN8" s="52"/>
     </row>
     <row r="9" ht="14.05" customHeight="1">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="52"/>
       <c r="D9" s="52"/>
       <c r="E9" s="52"/>
@@ -16101,8 +16124,8 @@
       <c r="AN9" s="52"/>
     </row>
     <row r="10" ht="14.05" customHeight="1">
-      <c r="A10" s="53"/>
-      <c r="B10" s="54"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="52"/>
       <c r="D10" s="52"/>
       <c r="E10" s="52"/>
@@ -16143,8 +16166,8 @@
       <c r="AN10" s="52"/>
     </row>
     <row r="11" ht="14.05" customHeight="1">
-      <c r="A11" s="53"/>
-      <c r="B11" s="54"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="52"/>
       <c r="D11" s="52"/>
       <c r="E11" s="52"/>
@@ -16185,8 +16208,8 @@
       <c r="AN11" s="52"/>
     </row>
     <row r="12" ht="14.05" customHeight="1">
-      <c r="A12" s="53"/>
-      <c r="B12" s="54"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="52"/>
       <c r="D12" s="52"/>
       <c r="E12" s="52"/>
@@ -16251,8 +16274,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="46" width="16.3516" style="73" customWidth="1"/>
-    <col min="47" max="16384" width="16.3516" style="73" customWidth="1"/>
+    <col min="1" max="46" width="16.3516" style="74" customWidth="1"/>
+    <col min="47" max="16384" width="16.3516" style="74" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.55" customHeight="1">
@@ -16352,7 +16375,7 @@
       </c>
       <c r="AK2" s="12"/>
       <c r="AL2" t="s" s="11">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="AM2" s="12"/>
       <c r="AN2" s="12"/>
@@ -16365,16 +16388,16 @@
     </row>
     <row r="3" ht="134.2" customHeight="1">
       <c r="A3" t="s" s="38">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B3" t="s" s="47">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="C3" t="s" s="40">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="D3" t="s" s="42">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="E3" t="s" s="42">
         <v>110</v>
@@ -16398,16 +16421,16 @@
         <v>116</v>
       </c>
       <c r="L3" t="s" s="45">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="M3" t="s" s="45">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="N3" t="s" s="45">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="O3" t="s" s="45">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="P3" t="s" s="45">
         <v>161</v>
@@ -16418,7 +16441,7 @@
       <c r="R3" t="s" s="45">
         <v>120</v>
       </c>
-      <c r="S3" t="s" s="74">
+      <c r="S3" t="s" s="75">
         <v>121</v>
       </c>
       <c r="T3" t="s" s="45">
@@ -16428,10 +16451,10 @@
         <v>122</v>
       </c>
       <c r="V3" t="s" s="42">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="W3" t="s" s="42">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="X3" t="s" s="42">
         <v>125</v>
@@ -16464,10 +16487,10 @@
         <v>136</v>
       </c>
       <c r="AH3" t="s" s="42">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="AI3" t="s" s="42">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="AJ3" t="s" s="45">
         <v>142</v>
@@ -16476,28 +16499,28 @@
         <v>143</v>
       </c>
       <c r="AL3" t="s" s="45">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="AM3" t="s" s="45">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="AN3" t="s" s="45">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="AO3" t="s" s="45">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="AP3" t="s" s="42">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="AQ3" t="s" s="45">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="AR3" t="s" s="45">
         <v>145</v>
       </c>
       <c r="AS3" t="s" s="45">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="AT3" t="s" s="45">
         <v>144</v>
@@ -16505,147 +16528,147 @@
     </row>
     <row r="4" ht="134" customHeight="1">
       <c r="A4" t="s" s="49">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="B4" t="s" s="50">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="C4" t="s" s="43">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D4" t="s" s="43">
-        <v>365</v>
+        <v>788</v>
       </c>
       <c r="E4" t="s" s="43">
-        <v>365</v>
+        <v>788</v>
       </c>
       <c r="F4" t="s" s="43">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="G4" t="s" s="43">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="H4" t="s" s="43">
-        <v>788</v>
-      </c>
-      <c r="I4" t="s" s="75">
-        <v>789</v>
+        <v>791</v>
+      </c>
+      <c r="I4" t="s" s="76">
+        <v>792</v>
       </c>
       <c r="J4" t="s" s="43">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="K4" t="s" s="43">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="L4" t="s" s="43">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="M4" t="s" s="43">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="N4" t="s" s="43">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="O4" t="s" s="43">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="P4" t="s" s="43">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="Q4" t="s" s="43">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="R4" t="s" s="43">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="S4" t="s" s="43">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="T4" t="s" s="43">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="U4" t="s" s="43">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="V4" t="s" s="43">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="W4" t="s" s="43">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="X4" t="s" s="43">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="Y4" t="s" s="43">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="Z4" t="s" s="43">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="AA4" t="s" s="43">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="AB4" t="s" s="43">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="AC4" t="s" s="44">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="AD4" t="s" s="43">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="AE4" t="s" s="44">
-        <v>397</v>
+        <v>814</v>
       </c>
       <c r="AF4" t="s" s="44">
-        <v>397</v>
+        <v>814</v>
       </c>
       <c r="AG4" t="s" s="44">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="AH4" t="s" s="44">
-        <v>398</v>
+        <v>816</v>
       </c>
       <c r="AI4" t="s" s="43">
-        <v>398</v>
+        <v>816</v>
       </c>
       <c r="AJ4" t="s" s="43">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="AK4" t="s" s="43">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="AL4" t="s" s="43">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="AM4" t="s" s="43">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="AN4" t="s" s="43">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="AO4" t="s" s="43">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="AP4" t="s" s="43">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="AQ4" t="s" s="43">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="AR4" t="s" s="43">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="AS4" t="s" s="43">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="AT4" t="s" s="43">
-        <v>822</v>
+        <v>827</v>
       </c>
     </row>
     <row r="5" ht="14.05" customHeight="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="52"/>
       <c r="D5" s="52"/>
       <c r="E5" s="52"/>
@@ -16692,8 +16715,8 @@
       <c r="AT5" s="52"/>
     </row>
     <row r="6" ht="14.05" customHeight="1">
-      <c r="A6" s="53"/>
-      <c r="B6" s="54"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="52"/>
       <c r="D6" s="52"/>
       <c r="E6" s="52"/>
@@ -16740,8 +16763,8 @@
       <c r="AT6" s="52"/>
     </row>
     <row r="7" ht="14.05" customHeight="1">
-      <c r="A7" s="53"/>
-      <c r="B7" s="54"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="52"/>
       <c r="D7" s="52"/>
       <c r="E7" s="52"/>
@@ -16788,8 +16811,8 @@
       <c r="AT7" s="52"/>
     </row>
     <row r="8" ht="14.05" customHeight="1">
-      <c r="A8" s="53"/>
-      <c r="B8" s="54"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="52"/>
       <c r="D8" s="52"/>
       <c r="E8" s="52"/>
@@ -16836,8 +16859,8 @@
       <c r="AT8" s="52"/>
     </row>
     <row r="9" ht="14.05" customHeight="1">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="52"/>
       <c r="D9" s="52"/>
       <c r="E9" s="52"/>
@@ -16884,8 +16907,8 @@
       <c r="AT9" s="52"/>
     </row>
     <row r="10" ht="14.05" customHeight="1">
-      <c r="A10" s="53"/>
-      <c r="B10" s="54"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="52"/>
       <c r="D10" s="52"/>
       <c r="E10" s="52"/>
@@ -16932,8 +16955,8 @@
       <c r="AT10" s="52"/>
     </row>
     <row r="11" ht="14.05" customHeight="1">
-      <c r="A11" s="53"/>
-      <c r="B11" s="54"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="52"/>
       <c r="D11" s="52"/>
       <c r="E11" s="52"/>
@@ -16980,8 +17003,8 @@
       <c r="AT11" s="52"/>
     </row>
     <row r="12" ht="14.05" customHeight="1">
-      <c r="A12" s="53"/>
-      <c r="B12" s="54"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="52"/>
       <c r="D12" s="52"/>
       <c r="E12" s="52"/>
@@ -17052,19 +17075,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="53" width="16.3516" style="76" customWidth="1"/>
-    <col min="54" max="54" width="10.8516" style="76" customWidth="1"/>
-    <col min="55" max="55" width="11" style="76" customWidth="1"/>
-    <col min="56" max="56" width="9.85156" style="76" customWidth="1"/>
-    <col min="57" max="57" width="10.6719" style="76" customWidth="1"/>
-    <col min="58" max="58" width="9.35156" style="76" customWidth="1"/>
-    <col min="59" max="59" width="9.85156" style="76" customWidth="1"/>
-    <col min="60" max="60" width="9.5" style="76" customWidth="1"/>
-    <col min="61" max="61" width="9.85156" style="76" customWidth="1"/>
-    <col min="62" max="63" width="9.5" style="76" customWidth="1"/>
-    <col min="64" max="64" width="9.67188" style="76" customWidth="1"/>
-    <col min="65" max="70" width="9.5" style="76" customWidth="1"/>
-    <col min="71" max="16384" width="16.3516" style="76" customWidth="1"/>
+    <col min="1" max="53" width="16.3516" style="77" customWidth="1"/>
+    <col min="54" max="54" width="10.8516" style="77" customWidth="1"/>
+    <col min="55" max="55" width="11" style="77" customWidth="1"/>
+    <col min="56" max="56" width="9.85156" style="77" customWidth="1"/>
+    <col min="57" max="57" width="10.6719" style="77" customWidth="1"/>
+    <col min="58" max="58" width="9.35156" style="77" customWidth="1"/>
+    <col min="59" max="59" width="9.85156" style="77" customWidth="1"/>
+    <col min="60" max="60" width="9.5" style="77" customWidth="1"/>
+    <col min="61" max="61" width="9.85156" style="77" customWidth="1"/>
+    <col min="62" max="63" width="9.5" style="77" customWidth="1"/>
+    <col min="64" max="64" width="9.67188" style="77" customWidth="1"/>
+    <col min="65" max="70" width="9.5" style="77" customWidth="1"/>
+    <col min="71" max="16384" width="16.3516" style="77" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.55" customHeight="1">
@@ -17322,7 +17345,7 @@
         <v>214</v>
       </c>
       <c r="AH3" t="s" s="33">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="AI3" t="s" s="33">
         <v>215</v>
@@ -17417,30 +17440,30 @@
       <c r="BM3" t="s" s="35">
         <v>244</v>
       </c>
-      <c r="BN3" s="77"/>
-      <c r="BO3" s="77"/>
-      <c r="BP3" s="77"/>
-      <c r="BQ3" s="77"/>
-      <c r="BR3" s="77"/>
+      <c r="BN3" s="78"/>
+      <c r="BO3" s="78"/>
+      <c r="BP3" s="78"/>
+      <c r="BQ3" s="78"/>
+      <c r="BR3" s="78"/>
     </row>
     <row r="4" ht="26.25" customHeight="1">
       <c r="A4" t="s" s="38">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B4" t="s" s="47">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C4" t="s" s="40">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D4" t="s" s="40">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="E4" t="s" s="40">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="F4" t="s" s="40">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="G4" t="s" s="40">
         <v>187</v>
@@ -17449,7 +17472,7 @@
         <v>188</v>
       </c>
       <c r="I4" t="s" s="40">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="J4" t="s" s="40">
         <v>190</v>
@@ -17461,155 +17484,155 @@
         <v>192</v>
       </c>
       <c r="M4" t="s" s="40">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="N4" t="s" s="40">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="O4" t="s" s="40">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="P4" t="s" s="40">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="Q4" t="s" s="40">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="R4" t="s" s="40">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="S4" t="s" s="40">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="T4" t="s" s="40">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="U4" t="s" s="40">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="V4" t="s" s="40">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="W4" t="s" s="40">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="X4" t="s" s="40">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="Y4" t="s" s="40">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="Z4" t="s" s="40">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AA4" t="s" s="40">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AB4" t="s" s="40">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AC4" t="s" s="40">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AD4" t="s" s="40">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AE4" t="s" s="48">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AF4" t="s" s="40">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="AG4" t="s" s="40">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="AH4" t="s" s="40">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="AI4" t="s" s="40">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AJ4" t="s" s="40">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AK4" t="s" s="40">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AL4" t="s" s="40">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AM4" t="s" s="40">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="AN4" t="s" s="40">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="AO4" t="s" s="40">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="AP4" t="s" s="40">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="AQ4" t="s" s="40">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="AR4" t="s" s="40">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="AS4" t="s" s="40">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AT4" t="s" s="40">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="AU4" t="s" s="40">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="AV4" t="s" s="40">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="AW4" t="s" s="40">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="AX4" t="s" s="40">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="AY4" t="s" s="40">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="AZ4" t="s" s="40">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="BA4" t="s" s="40">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="BB4" t="s" s="40">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="BC4" t="s" s="40">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="BD4" t="s" s="40">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="BE4" t="s" s="40">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="BF4" t="s" s="40">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="BG4" t="s" s="40">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="BH4" t="s" s="40">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="BI4" t="s" s="40">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="BJ4" s="40"/>
       <c r="BK4" t="s" s="40">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="BL4" s="40"/>
       <c r="BM4" s="40"/>
@@ -17620,8 +17643,8 @@
       <c r="BR4" s="40"/>
     </row>
     <row r="5" ht="14.05" customHeight="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="52"/>
       <c r="D5" s="52"/>
       <c r="E5" s="52"/>
@@ -17692,8 +17715,8 @@
       <c r="BR5" s="52"/>
     </row>
     <row r="6" ht="14.05" customHeight="1">
-      <c r="A6" s="53"/>
-      <c r="B6" s="54"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="52"/>
       <c r="D6" s="52"/>
       <c r="E6" s="52"/>
@@ -17764,8 +17787,8 @@
       <c r="BR6" s="52"/>
     </row>
     <row r="7" ht="14.05" customHeight="1">
-      <c r="A7" s="53"/>
-      <c r="B7" s="54"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="52"/>
       <c r="D7" s="52"/>
       <c r="E7" s="52"/>
@@ -17836,8 +17859,8 @@
       <c r="BR7" s="52"/>
     </row>
     <row r="8" ht="14.05" customHeight="1">
-      <c r="A8" s="53"/>
-      <c r="B8" s="54"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="52"/>
       <c r="D8" s="52"/>
       <c r="E8" s="52"/>
@@ -17908,8 +17931,8 @@
       <c r="BR8" s="52"/>
     </row>
     <row r="9" ht="14.05" customHeight="1">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="52"/>
       <c r="D9" s="52"/>
       <c r="E9" s="52"/>
@@ -17980,8 +18003,8 @@
       <c r="BR9" s="52"/>
     </row>
     <row r="10" ht="14.05" customHeight="1">
-      <c r="A10" s="53"/>
-      <c r="B10" s="54"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="52"/>
       <c r="D10" s="52"/>
       <c r="E10" s="52"/>
@@ -18052,8 +18075,8 @@
       <c r="BR10" s="52"/>
     </row>
     <row r="11" ht="14.05" customHeight="1">
-      <c r="A11" s="53"/>
-      <c r="B11" s="54"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="52"/>
       <c r="D11" s="52"/>
       <c r="E11" s="52"/>
@@ -18124,8 +18147,8 @@
       <c r="BR11" s="52"/>
     </row>
     <row r="12" ht="14.05" customHeight="1">
-      <c r="A12" s="53"/>
-      <c r="B12" s="54"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="52"/>
       <c r="D12" s="52"/>
       <c r="E12" s="52"/>
